--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
+++ b/main/ig/StructureDefinition-fr-core-human-name-assembly-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
